--- a/Excel/Monster/怪物配置.xlsx
+++ b/Excel/Monster/怪物配置.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BB73F0-2A83-4674-B2FE-938B372DDB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6251B1-CCDC-4A56-A86A-F5AE294E7EA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +18,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="189">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +613,78 @@
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001013_FireBomb_parts_fix</t>
+  </si>
+  <si>
+    <t>001014_WindBomb_parts_fix</t>
+  </si>
+  <si>
+    <t>001015_WaterBomb_parts_fix</t>
+  </si>
+  <si>
+    <t>001016_LandBomb_parts_fix</t>
+  </si>
+  <si>
+    <t>001017_LightBomb_parts_fix</t>
+  </si>
+  <si>
+    <t>001018_DarkBomb_parts_fix</t>
+  </si>
+  <si>
+    <t>107001_BuguKyouka_Boss_buki</t>
+  </si>
+  <si>
+    <t>107002_BuguKyouka_Boss_bougu</t>
+  </si>
+  <si>
+    <t>107003_BuguKyouka_Boss_sousyoku</t>
+  </si>
+  <si>
+    <t>107004_kakidashi</t>
+  </si>
+  <si>
+    <t>107005_kakidashi</t>
+  </si>
+  <si>
+    <t>107006_kakidashi</t>
+  </si>
+  <si>
+    <t>2009_yadokari_water</t>
+  </si>
+  <si>
+    <t>2011_yadokari_land</t>
+  </si>
+  <si>
+    <t>MST_001025_a0</t>
+  </si>
+  <si>
+    <t>MST_001026_d0</t>
+  </si>
+  <si>
+    <t>MST_001027_b0</t>
+  </si>
+  <si>
+    <t>MST_001028_c0</t>
+  </si>
+  <si>
+    <t>MST_001029_e0</t>
+  </si>
+  <si>
+    <t>MST_001030_f0</t>
+  </si>
+  <si>
+    <t>nami_kyojin_kakidasi</t>
+  </si>
+  <si>
+    <t>saboten_kakidasi</t>
+  </si>
+  <si>
+    <t>water_fairy_BrushUp</t>
+  </si>
+  <si>
+    <t>wind_fairy_BrushUp</t>
   </si>
 </sst>
 </file>
@@ -964,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4363,9 +4425,201 @@
         <v>1</v>
       </c>
     </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1072</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1073</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1074</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1075</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1076</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1077</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1078</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1079</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1080</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1081</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1082</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1083</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1084</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1085</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1086</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1087</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1088</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1089</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1090</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1091</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1092</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1093</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1094</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1095</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D72" xr:uid="{77FA8584-9934-4B05-A8D2-187B6265767F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P74">
+  <sortState ref="A2:P74">
     <sortCondition descending="1" ref="D1:D74"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
